--- a/database/industries/khodro/khetrak/product/yearly_seprated.xlsx
+++ b/database/industries/khodro/khetrak/product/yearly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\khodro\khetrak\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khetrak\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E148D7EE-F979-4F4F-AF2A-54371590461C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -162,7 +163,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -349,7 +350,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -361,7 +362,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -408,6 +409,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -443,6 +461,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -594,7 +629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/database/industries/khodro/khetrak/product/yearly_seprated.xlsx
+++ b/database/industries/khodro/khetrak/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khetrak\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khetrak\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E148D7EE-F979-4F4F-AF2A-54371590461C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14101DB-E098-48A6-B532-CCDFB5678C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="46">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مقدار فروش داخلی</t>
   </si>
   <si>
@@ -61,28 +61,28 @@
     <t>تن</t>
   </si>
   <si>
+    <t>جمع فروش داخلی</t>
+  </si>
+  <si>
+    <t>مقدار فروش خارجی</t>
+  </si>
+  <si>
+    <t>جمع فروش خارجی</t>
+  </si>
+  <si>
+    <t>مقدار فروش درآمد ارائه خدمات</t>
+  </si>
+  <si>
+    <t>جمع فروش خدمات</t>
+  </si>
+  <si>
+    <t>برگشت از فروش</t>
+  </si>
+  <si>
+    <t>ریال</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>جمع فروش داخلی</t>
-  </si>
-  <si>
-    <t>مقدار فروش خارجی</t>
-  </si>
-  <si>
-    <t>جمع فروش خارجی</t>
-  </si>
-  <si>
-    <t>مقدار فروش درآمد ارائه خدمات</t>
-  </si>
-  <si>
-    <t>جمع فروش خدمات</t>
-  </si>
-  <si>
-    <t>برگشت از فروش</t>
-  </si>
-  <si>
-    <t>ریال</t>
   </si>
   <si>
     <t>سایر / تخفیفات</t>
@@ -634,12 +634,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -649,7 +649,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -661,7 +661,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -673,7 +673,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -683,7 +683,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -695,7 +695,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -707,7 +707,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -717,7 +717,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -739,7 +739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -749,7 +749,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -761,7 +761,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -769,47 +769,47 @@
         <v>12</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="11">
+        <v>34508</v>
+      </c>
+      <c r="F11" s="11">
+        <v>33686</v>
+      </c>
+      <c r="G11" s="11">
+        <v>39955</v>
+      </c>
+      <c r="H11" s="11">
+        <v>41392</v>
+      </c>
+      <c r="I11" s="11">
+        <v>54044</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F11" s="11">
-        <v>34508</v>
-      </c>
-      <c r="G11" s="11">
-        <v>33686</v>
-      </c>
-      <c r="H11" s="11">
-        <v>39955</v>
-      </c>
-      <c r="I11" s="11">
-        <v>41392</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>0</v>
+        <v>34508</v>
       </c>
       <c r="F12" s="13">
-        <v>34508</v>
+        <v>33686</v>
       </c>
       <c r="G12" s="13">
-        <v>33686</v>
+        <v>39955</v>
       </c>
       <c r="H12" s="13">
-        <v>39955</v>
+        <v>41392</v>
       </c>
       <c r="I12" s="13">
-        <v>41392</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>54044</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -819,7 +819,7 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>11</v>
       </c>
@@ -827,47 +827,47 @@
         <v>12</v>
       </c>
       <c r="D14" s="11"/>
-      <c r="E14" s="11" t="s">
-        <v>13</v>
+      <c r="E14" s="11">
+        <v>9081</v>
       </c>
       <c r="F14" s="11">
-        <v>9081</v>
+        <v>8241</v>
       </c>
       <c r="G14" s="11">
-        <v>8241</v>
+        <v>9373</v>
       </c>
       <c r="H14" s="11">
-        <v>9373</v>
+        <v>11144</v>
       </c>
       <c r="I14" s="11">
-        <v>11144</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9619</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>0</v>
+        <v>9081</v>
       </c>
       <c r="F15" s="13">
-        <v>9081</v>
+        <v>8241</v>
       </c>
       <c r="G15" s="13">
-        <v>8241</v>
+        <v>9373</v>
       </c>
       <c r="H15" s="13">
-        <v>9373</v>
+        <v>11144</v>
       </c>
       <c r="I15" s="13">
-        <v>11144</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9619</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -877,9 +877,9 @@
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -899,38 +899,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="13"/>
+      <c r="E18" s="13">
+        <v>-631</v>
+      </c>
+      <c r="F18" s="13">
+        <v>-437</v>
+      </c>
+      <c r="G18" s="13">
+        <v>-253</v>
+      </c>
+      <c r="H18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="13">
-        <v>-631</v>
-      </c>
-      <c r="G18" s="13">
-        <v>-437</v>
-      </c>
-      <c r="H18" s="13">
-        <v>-253</v>
-      </c>
       <c r="I18" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="17" t="s">
-        <v>13</v>
+      <c r="E19" s="17">
+        <v>0</v>
       </c>
       <c r="F19" s="17">
         <v>0</v>
@@ -939,35 +939,35 @@
         <v>0</v>
       </c>
       <c r="H19" s="17">
-        <v>0</v>
+        <v>-271</v>
       </c>
       <c r="I19" s="17">
-        <v>-271</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-266</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
-        <v>0</v>
+        <v>42958</v>
       </c>
       <c r="F20" s="13">
-        <v>42958</v>
+        <v>41490</v>
       </c>
       <c r="G20" s="13">
-        <v>41490</v>
+        <v>49075</v>
       </c>
       <c r="H20" s="13">
-        <v>49075</v>
+        <v>52265</v>
       </c>
       <c r="I20" s="13">
-        <v>52265</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>63397</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -977,7 +977,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -987,7 +987,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -997,7 +997,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>23</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1029,7 +1029,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>24</v>
       </c>
@@ -1041,7 +1041,7 @@
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>11</v>
       </c>
@@ -1049,45 +1049,45 @@
         <v>25</v>
       </c>
       <c r="D27" s="11"/>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="11">
+        <v>2096295</v>
+      </c>
+      <c r="F27" s="11">
+        <v>2944441</v>
+      </c>
+      <c r="G27" s="11">
+        <v>5897483</v>
+      </c>
+      <c r="H27" s="11">
+        <v>10478524</v>
+      </c>
+      <c r="I27" s="11">
+        <v>20834555</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F27" s="11">
-        <v>2096295</v>
-      </c>
-      <c r="G27" s="11">
-        <v>2944441</v>
-      </c>
-      <c r="H27" s="11">
-        <v>5897483</v>
-      </c>
-      <c r="I27" s="11">
-        <v>10478524</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13">
-        <v>0</v>
+        <v>2096295</v>
       </c>
       <c r="F28" s="13">
-        <v>2096295</v>
+        <v>2944441</v>
       </c>
       <c r="G28" s="13">
-        <v>2944441</v>
+        <v>5897483</v>
       </c>
       <c r="H28" s="13">
-        <v>5897483</v>
+        <v>10478524</v>
       </c>
       <c r="I28" s="13">
-        <v>10478524</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20834555</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>26</v>
       </c>
@@ -1099,7 +1099,7 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>11</v>
       </c>
@@ -1107,45 +1107,45 @@
         <v>25</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>13</v>
+      <c r="E30" s="11">
+        <v>635905</v>
       </c>
       <c r="F30" s="11">
-        <v>635905</v>
+        <v>1127940</v>
       </c>
       <c r="G30" s="11">
-        <v>1127940</v>
+        <v>2607138</v>
       </c>
       <c r="H30" s="11">
-        <v>2607138</v>
+        <v>3273963</v>
       </c>
       <c r="I30" s="11">
-        <v>3273963</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3894124</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13">
-        <v>0</v>
+        <v>635905</v>
       </c>
       <c r="F31" s="13">
-        <v>635905</v>
+        <v>1127940</v>
       </c>
       <c r="G31" s="13">
-        <v>1127940</v>
+        <v>2607138</v>
       </c>
       <c r="H31" s="13">
-        <v>2607138</v>
+        <v>3273963</v>
       </c>
       <c r="I31" s="13">
-        <v>3273963</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3894124</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="14" t="s">
         <v>27</v>
       </c>
@@ -1157,9 +1157,9 @@
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -1179,31 +1179,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="13"/>
-      <c r="E34" s="13" t="s">
-        <v>13</v>
+      <c r="E34" s="13">
+        <v>-38923</v>
       </c>
       <c r="F34" s="13">
-        <v>-38923</v>
+        <v>-41115</v>
       </c>
       <c r="G34" s="13">
-        <v>-41115</v>
-      </c>
-      <c r="H34" s="13">
         <v>-36085</v>
       </c>
+      <c r="H34" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="I34" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="16" t="s">
         <v>21</v>
       </c>
@@ -1211,8 +1211,8 @@
         <v>25</v>
       </c>
       <c r="D35" s="17"/>
-      <c r="E35" s="17" t="s">
-        <v>13</v>
+      <c r="E35" s="17">
+        <v>0</v>
       </c>
       <c r="F35" s="17">
         <v>0</v>
@@ -1221,35 +1221,35 @@
         <v>0</v>
       </c>
       <c r="H35" s="17">
-        <v>0</v>
+        <v>-61206</v>
       </c>
       <c r="I35" s="17">
-        <v>-61206</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-82738</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>0</v>
+        <v>2693277</v>
       </c>
       <c r="F36" s="13">
-        <v>2693277</v>
+        <v>4031266</v>
       </c>
       <c r="G36" s="13">
-        <v>4031266</v>
+        <v>8468536</v>
       </c>
       <c r="H36" s="13">
-        <v>8468536</v>
+        <v>13691281</v>
       </c>
       <c r="I36" s="13">
-        <v>13691281</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>24645941</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1259,7 +1259,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1269,7 +1269,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1279,7 +1279,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>28</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1311,7 +1311,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>29</v>
       </c>
@@ -1323,7 +1323,7 @@
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>11</v>
       </c>
@@ -1331,23 +1331,23 @@
         <v>30</v>
       </c>
       <c r="D43" s="11"/>
-      <c r="E43" s="11" t="s">
-        <v>13</v>
+      <c r="E43" s="11">
+        <v>60748087</v>
       </c>
       <c r="F43" s="11">
-        <v>60748087</v>
+        <v>87408449</v>
       </c>
       <c r="G43" s="11">
-        <v>87408449</v>
+        <v>147603129</v>
       </c>
       <c r="H43" s="11">
-        <v>147603129</v>
+        <v>253153363</v>
       </c>
       <c r="I43" s="11">
-        <v>253153363</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>385510973</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>31</v>
       </c>
@@ -1359,7 +1359,7 @@
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>11</v>
       </c>
@@ -1367,23 +1367,23 @@
         <v>30</v>
       </c>
       <c r="D45" s="11"/>
-      <c r="E45" s="11" t="s">
-        <v>13</v>
+      <c r="E45" s="11">
+        <v>70025878</v>
       </c>
       <c r="F45" s="11">
-        <v>70025878</v>
+        <v>136869312</v>
       </c>
       <c r="G45" s="11">
-        <v>136869312</v>
+        <v>278154060</v>
       </c>
       <c r="H45" s="11">
-        <v>278154060</v>
+        <v>293787060</v>
       </c>
       <c r="I45" s="11">
-        <v>293787060</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>404836677</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1393,7 +1393,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1403,7 +1403,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1413,7 +1413,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>32</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1445,7 +1445,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>33</v>
       </c>
@@ -1457,7 +1457,7 @@
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>11</v>
       </c>
@@ -1465,45 +1465,45 @@
         <v>25</v>
       </c>
       <c r="D52" s="11"/>
-      <c r="E52" s="11" t="s">
-        <v>13</v>
+      <c r="E52" s="11">
+        <v>-2200812</v>
       </c>
       <c r="F52" s="11">
-        <v>-2200812</v>
+        <v>-2951053</v>
       </c>
       <c r="G52" s="11">
-        <v>-2951053</v>
+        <v>-6103951</v>
       </c>
       <c r="H52" s="11">
-        <v>-6103951</v>
+        <v>-9007905</v>
       </c>
       <c r="I52" s="11">
-        <v>-9007905</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-17029922</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13">
-        <v>0</v>
+        <v>-2200812</v>
       </c>
       <c r="F53" s="13">
-        <v>-2200812</v>
+        <v>-2951053</v>
       </c>
       <c r="G53" s="13">
-        <v>-2951053</v>
+        <v>-6103951</v>
       </c>
       <c r="H53" s="13">
-        <v>-6103951</v>
+        <v>-9007905</v>
       </c>
       <c r="I53" s="13">
-        <v>-9007905</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-17029922</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>35</v>
       </c>
@@ -1515,7 +1515,7 @@
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>11</v>
       </c>
@@ -1523,45 +1523,45 @@
         <v>25</v>
       </c>
       <c r="D55" s="11"/>
-      <c r="E55" s="11" t="s">
-        <v>13</v>
+      <c r="E55" s="11">
+        <v>-527453</v>
       </c>
       <c r="F55" s="11">
-        <v>-527453</v>
+        <v>-684450</v>
       </c>
       <c r="G55" s="11">
-        <v>-684450</v>
+        <v>-1226768</v>
       </c>
       <c r="H55" s="11">
-        <v>-1226768</v>
+        <v>-2364285</v>
       </c>
       <c r="I55" s="11">
-        <v>-2364285</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2831552</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>0</v>
+        <v>-527453</v>
       </c>
       <c r="F56" s="13">
-        <v>-527453</v>
+        <v>-684450</v>
       </c>
       <c r="G56" s="13">
-        <v>-684450</v>
+        <v>-1226768</v>
       </c>
       <c r="H56" s="13">
-        <v>-1226768</v>
+        <v>-2364285</v>
       </c>
       <c r="I56" s="13">
-        <v>-2364285</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2831552</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="14" t="s">
         <v>37</v>
       </c>
@@ -1573,7 +1573,7 @@
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="16" t="s">
         <v>38</v>
       </c>
@@ -1595,31 +1595,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="13"/>
-      <c r="E59" s="13" t="s">
-        <v>13</v>
+      <c r="E59" s="13">
+        <v>39199</v>
       </c>
       <c r="F59" s="13">
-        <v>39199</v>
+        <v>39963</v>
       </c>
       <c r="G59" s="13">
-        <v>39963</v>
-      </c>
-      <c r="H59" s="13">
         <v>33487</v>
       </c>
+      <c r="H59" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="I59" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="16" t="s">
         <v>21</v>
       </c>
@@ -1627,8 +1627,8 @@
         <v>25</v>
       </c>
       <c r="D60" s="17"/>
-      <c r="E60" s="17" t="s">
-        <v>13</v>
+      <c r="E60" s="17">
+        <v>0</v>
       </c>
       <c r="F60" s="17">
         <v>0</v>
@@ -1637,35 +1637,35 @@
         <v>0</v>
       </c>
       <c r="H60" s="17">
-        <v>0</v>
+        <v>52920</v>
       </c>
       <c r="I60" s="17">
-        <v>52920</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+        <v>76299</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
       <c r="E61" s="13">
-        <v>0</v>
+        <v>-2689066</v>
       </c>
       <c r="F61" s="13">
-        <v>-2689066</v>
+        <v>-3595540</v>
       </c>
       <c r="G61" s="13">
-        <v>-3595540</v>
+        <v>-7297232</v>
       </c>
       <c r="H61" s="13">
-        <v>-7297232</v>
+        <v>-11319270</v>
       </c>
       <c r="I61" s="13">
-        <v>-11319270</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-19785175</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1675,7 +1675,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1685,7 +1685,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1695,7 +1695,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B65" s="7" t="s">
         <v>39</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1727,7 +1727,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>40</v>
       </c>
@@ -1739,7 +1739,7 @@
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>11</v>
       </c>
@@ -1747,45 +1747,45 @@
         <v>25</v>
       </c>
       <c r="D68" s="11"/>
-      <c r="E68" s="11" t="s">
-        <v>13</v>
+      <c r="E68" s="11">
+        <v>-104517</v>
       </c>
       <c r="F68" s="11">
-        <v>-104517</v>
+        <v>-6612</v>
       </c>
       <c r="G68" s="11">
-        <v>-6612</v>
+        <v>-206468</v>
       </c>
       <c r="H68" s="11">
-        <v>-206468</v>
+        <v>1470619</v>
       </c>
       <c r="I68" s="11">
-        <v>1470619</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3804633</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
       <c r="E69" s="13">
-        <v>0</v>
+        <v>-104517</v>
       </c>
       <c r="F69" s="13">
-        <v>-104517</v>
+        <v>-6612</v>
       </c>
       <c r="G69" s="13">
-        <v>-6612</v>
+        <v>-206468</v>
       </c>
       <c r="H69" s="13">
-        <v>-206468</v>
+        <v>1470619</v>
       </c>
       <c r="I69" s="13">
-        <v>1470619</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3804633</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>42</v>
       </c>
@@ -1797,7 +1797,7 @@
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>11</v>
       </c>
@@ -1805,45 +1805,45 @@
         <v>25</v>
       </c>
       <c r="D71" s="11"/>
-      <c r="E71" s="11" t="s">
-        <v>13</v>
+      <c r="E71" s="11">
+        <v>108452</v>
       </c>
       <c r="F71" s="11">
-        <v>108452</v>
+        <v>443490</v>
       </c>
       <c r="G71" s="11">
-        <v>443490</v>
+        <v>1380370</v>
       </c>
       <c r="H71" s="11">
-        <v>1380370</v>
+        <v>909678</v>
       </c>
       <c r="I71" s="11">
-        <v>909678</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1062572</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
-        <v>0</v>
+        <v>108452</v>
       </c>
       <c r="F72" s="13">
-        <v>108452</v>
+        <v>443490</v>
       </c>
       <c r="G72" s="13">
-        <v>443490</v>
+        <v>1380370</v>
       </c>
       <c r="H72" s="13">
-        <v>1380370</v>
+        <v>909678</v>
       </c>
       <c r="I72" s="13">
-        <v>909678</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1062572</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="14" t="s">
         <v>44</v>
       </c>
@@ -1855,7 +1855,7 @@
       <c r="H73" s="15"/>
       <c r="I73" s="15"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="16" t="s">
         <v>45</v>
       </c>
@@ -1877,26 +1877,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13">
-        <v>0</v>
+        <v>3935</v>
       </c>
       <c r="F75" s="13">
-        <v>3935</v>
+        <v>436878</v>
       </c>
       <c r="G75" s="13">
-        <v>436878</v>
+        <v>1173902</v>
       </c>
       <c r="H75" s="13">
-        <v>1173902</v>
+        <v>2380297</v>
       </c>
       <c r="I75" s="13">
-        <v>2380297</v>
+        <v>4867205</v>
       </c>
     </row>
   </sheetData>
